--- a/test_students.xlsx
+++ b/test_students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PIERO\projects\integracion-instituciones-myworkin-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE6172A-5D36-4792-999B-BFD288C99BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4B17E-E1D0-4531-9426-D077C04E00A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="148">
   <si>
     <t>displayName</t>
   </si>
@@ -464,288 +464,6 @@
   </si>
   <si>
     <t>PRIMER_SUPERIOR</t>
-  </si>
-  <si>
-    <t>lucía.rojas3@test.com</t>
-  </si>
-  <si>
-    <t>954193894</t>
-  </si>
-  <si>
-    <t>2025-12-26T22:24:19.068626+00:00</t>
-  </si>
-  <si>
-    <t>Lucía</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Lucía Alonso Rojas Mendoza</t>
-  </si>
-  <si>
-    <t>1997-12-12</t>
-  </si>
-  <si>
-    <t>20190003</t>
-  </si>
-  <si>
-    <t>CO100003</t>
-  </si>
-  <si>
-    <t>PS100003</t>
-  </si>
-  <si>
-    <t>70000003</t>
-  </si>
-  <si>
-    <t>Av. Test 3</t>
-  </si>
-  <si>
-    <t>3@aloe.ulima.edu.pe</t>
-  </si>
-  <si>
-    <t>lucía.alt3@gmail.com</t>
-  </si>
-  <si>
-    <t>938286809</t>
-  </si>
-  <si>
-    <t>952650037</t>
-  </si>
-  <si>
-    <t>Ciencias Empresariales</t>
-  </si>
-  <si>
-    <t>2024-2</t>
-  </si>
-  <si>
-    <t>pedro.gómez4@test.com</t>
-  </si>
-  <si>
-    <t>963680005</t>
-  </si>
-  <si>
-    <t>2025-12-26T22:24:19.068659+00:00</t>
-  </si>
-  <si>
-    <t>Pedro Yolanda Gómez Torres</t>
-  </si>
-  <si>
-    <t>1997-09-15</t>
-  </si>
-  <si>
-    <t>20190004</t>
-  </si>
-  <si>
-    <t>CO100004</t>
-  </si>
-  <si>
-    <t>PS100004</t>
-  </si>
-  <si>
-    <t>70000004</t>
-  </si>
-  <si>
-    <t>Av. Test 4</t>
-  </si>
-  <si>
-    <t>4@aloe.ulima.edu.pe</t>
-  </si>
-  <si>
-    <t>pedro.alt4@gmail.com</t>
-  </si>
-  <si>
-    <t>913566808</t>
-  </si>
-  <si>
-    <t>996523979</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>josé.rojas5@test.com</t>
-  </si>
-  <si>
-    <t>961886699</t>
-  </si>
-  <si>
-    <t>2025-12-26T22:24:19.068685+00:00</t>
-  </si>
-  <si>
-    <t>Isabel</t>
-  </si>
-  <si>
-    <t>José Isabel Rojas Torres</t>
-  </si>
-  <si>
-    <t>2005-08-28</t>
-  </si>
-  <si>
-    <t>20190005</t>
-  </si>
-  <si>
-    <t>CO100005</t>
-  </si>
-  <si>
-    <t>PS100005</t>
-  </si>
-  <si>
-    <t>70000005</t>
-  </si>
-  <si>
-    <t>Av. Test 5</t>
-  </si>
-  <si>
-    <t>5@aloe.ulima.edu.pe</t>
-  </si>
-  <si>
-    <t>josé.alt5@gmail.com</t>
-  </si>
-  <si>
-    <t>916932834</t>
-  </si>
-  <si>
-    <t>971816588</t>
-  </si>
-  <si>
-    <t>Administración</t>
-  </si>
-  <si>
-    <t>carlos.gómez6@test.com</t>
-  </si>
-  <si>
-    <t>994711003</t>
-  </si>
-  <si>
-    <t>2025-12-26T22:24:19.068713+00:00</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Vargas</t>
-  </si>
-  <si>
-    <t>Carlos Alonso Gómez Vargas</t>
-  </si>
-  <si>
-    <t>2005-07-09</t>
-  </si>
-  <si>
-    <t>20190006</t>
-  </si>
-  <si>
-    <t>CO100006</t>
-  </si>
-  <si>
-    <t>PS100006</t>
-  </si>
-  <si>
-    <t>70000006</t>
-  </si>
-  <si>
-    <t>Av. Test 6</t>
-  </si>
-  <si>
-    <t>6@aloe.ulima.edu.pe</t>
-  </si>
-  <si>
-    <t>carlos.alt6@gmail.com</t>
-  </si>
-  <si>
-    <t>938202487</t>
-  </si>
-  <si>
-    <t>933759638</t>
-  </si>
-  <si>
-    <t>carlos.gómez7@test.com</t>
-  </si>
-  <si>
-    <t>924523733</t>
-  </si>
-  <si>
-    <t>2025-12-26T22:24:19.068738+00:00</t>
-  </si>
-  <si>
-    <t>Andrés</t>
-  </si>
-  <si>
-    <t>Carlos Andrés Gómez Vargas</t>
-  </si>
-  <si>
-    <t>1998-07-01</t>
-  </si>
-  <si>
-    <t>20190007</t>
-  </si>
-  <si>
-    <t>CO100007</t>
-  </si>
-  <si>
-    <t>PS100007</t>
-  </si>
-  <si>
-    <t>70000007</t>
-  </si>
-  <si>
-    <t>Av. Test 7</t>
-  </si>
-  <si>
-    <t>7@aloe.ulima.edu.pe</t>
-  </si>
-  <si>
-    <t>carlos.alt7@gmail.com</t>
-  </si>
-  <si>
-    <t>951887343</t>
-  </si>
-  <si>
-    <t>925573970</t>
-  </si>
-  <si>
-    <t>pedro.gómez8@test.com</t>
-  </si>
-  <si>
-    <t>965017547</t>
-  </si>
-  <si>
-    <t>2025-12-26T22:24:19.068764+00:00</t>
-  </si>
-  <si>
-    <t>Pedro Alonso Gómez Vargas</t>
-  </si>
-  <si>
-    <t>1995-11-08</t>
-  </si>
-  <si>
-    <t>20190008</t>
-  </si>
-  <si>
-    <t>CO100008</t>
-  </si>
-  <si>
-    <t>PS100008</t>
-  </si>
-  <si>
-    <t>70000008</t>
-  </si>
-  <si>
-    <t>Av. Test 8</t>
-  </si>
-  <si>
-    <t>8@aloe.ulima.edu.pe</t>
-  </si>
-  <si>
-    <t>pedro.alt8@gmail.com</t>
-  </si>
-  <si>
-    <t>969898616</t>
-  </si>
-  <si>
-    <t>968454770</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO10"/>
+  <dimension ref="A1:BO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,1224 +1646,6 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>150</v>
-      </c>
-      <c r="O5" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" t="s">
-        <v>152</v>
-      </c>
-      <c r="S5" t="s">
-        <v>153</v>
-      </c>
-      <c r="T5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" t="s">
-        <v>154</v>
-      </c>
-      <c r="V5" t="s">
-        <v>80</v>
-      </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT5">
-        <v>2024</v>
-      </c>
-      <c r="AU5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ5">
-        <v>17.87</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB5">
-        <v>112</v>
-      </c>
-      <c r="BC5">
-        <v>25</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" t="s">
-        <v>169</v>
-      </c>
-      <c r="T6" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" t="s">
-        <v>170</v>
-      </c>
-      <c r="V6" t="s">
-        <v>136</v>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT6">
-        <v>2022</v>
-      </c>
-      <c r="AU6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ6">
-        <v>15.34</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB6">
-        <v>136</v>
-      </c>
-      <c r="BC6">
-        <v>21</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>183</v>
-      </c>
-      <c r="O7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" t="s">
-        <v>76</v>
-      </c>
-      <c r="S7" t="s">
-        <v>185</v>
-      </c>
-      <c r="T7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7" t="s">
-        <v>186</v>
-      </c>
-      <c r="V7" t="s">
-        <v>136</v>
-      </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT7">
-        <v>2022</v>
-      </c>
-      <c r="AU7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ7">
-        <v>14.56</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB7">
-        <v>187</v>
-      </c>
-      <c r="BC7">
-        <v>23</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>199</v>
-      </c>
-      <c r="K8" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>199</v>
-      </c>
-      <c r="O8" t="s">
-        <v>200</v>
-      </c>
-      <c r="P8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" t="s">
-        <v>201</v>
-      </c>
-      <c r="S8" t="s">
-        <v>202</v>
-      </c>
-      <c r="T8" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" t="s">
-        <v>203</v>
-      </c>
-      <c r="V8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT8">
-        <v>2022</v>
-      </c>
-      <c r="AU8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ8">
-        <v>15.68</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB8">
-        <v>195</v>
-      </c>
-      <c r="BC8">
-        <v>26</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>215</v>
-      </c>
-      <c r="O9" t="s">
-        <v>200</v>
-      </c>
-      <c r="P9" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" t="s">
-        <v>201</v>
-      </c>
-      <c r="S9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T9" t="s">
-        <v>78</v>
-      </c>
-      <c r="U9" t="s">
-        <v>218</v>
-      </c>
-      <c r="V9" t="s">
-        <v>136</v>
-      </c>
-      <c r="W9" t="b">
-        <v>1</v>
-      </c>
-      <c r="X9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT9">
-        <v>2024</v>
-      </c>
-      <c r="AU9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ9">
-        <v>15.69</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB9">
-        <v>197</v>
-      </c>
-      <c r="BC9">
-        <v>28</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>230</v>
-      </c>
-      <c r="K10" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>230</v>
-      </c>
-      <c r="O10" t="s">
-        <v>132</v>
-      </c>
-      <c r="P10" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" t="s">
-        <v>201</v>
-      </c>
-      <c r="S10" t="s">
-        <v>231</v>
-      </c>
-      <c r="T10" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" t="s">
-        <v>232</v>
-      </c>
-      <c r="V10" t="s">
-        <v>136</v>
-      </c>
-      <c r="W10" t="b">
-        <v>1</v>
-      </c>
-      <c r="X10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT10">
-        <v>2022</v>
-      </c>
-      <c r="AU10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ10">
-        <v>15.06</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB10">
-        <v>131</v>
-      </c>
-      <c r="BC10">
-        <v>16</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>106</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
